--- a/自己申请Nov_6.xlsx
+++ b/自己申请Nov_6.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFBA3A5-1005-3146-A464-9303A48F71EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E08271-B2F2-684B-8D6D-D7D72EBEEC6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定校信息" sheetId="1" r:id="rId1"/>
@@ -1261,56 +1261,6 @@
   <dxfs count="27">
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1376,6 +1326,16 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1466,6 +1426,46 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="5" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1861,9 +1861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2510,7 +2510,7 @@
         <v>168</v>
       </c>
       <c r="AA7" s="20" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="AB7" s="20" t="s">
         <v>14</v>
@@ -2754,7 +2754,7 @@
         <v>23</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>23</v>
@@ -2834,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>23</v>
@@ -2964,81 +2964,81 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AF12 U2:U12">
-    <cfRule type="cellIs" dxfId="4" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="145" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="146" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="171" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="18" priority="171" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="172" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="17" priority="172" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AD12 U7:U12">
-    <cfRule type="containsText" dxfId="20" priority="173" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="16" priority="173" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",U7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="174" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="15" priority="174" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",U7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AD6">
-    <cfRule type="containsText" dxfId="18" priority="169" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="14" priority="169" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="170" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="13" priority="170" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:AB12">
-    <cfRule type="cellIs" dxfId="16" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="157" operator="equal">
       <formula>"已提交"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="158" operator="equal">
       <formula>"已发送"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="159" operator="equal">
       <formula>"未发送"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="161" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="9" priority="161" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="162" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="8" priority="162" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AF12 U2:U12">
-    <cfRule type="cellIs" dxfId="0" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="160" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V12">
-    <cfRule type="cellIs" dxfId="11" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="150" operator="equal">
       <formula>"已录取"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="156" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W12">
-    <cfRule type="cellIs" dxfId="9" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="147" operator="equal">
       <formula>"已发送WES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="148" operator="equal">
       <formula>"已邮寄"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="149" operator="equal">
       <formula>"已上传"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="0" priority="19" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",U6)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/自己申请Nov_6.xlsx
+++ b/自己申请Nov_6.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E08271-B2F2-684B-8D6D-D7D72EBEEC6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C93D9-E2CA-DB43-ACF4-211AB4E4E1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定校信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="180">
   <si>
     <t>账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -527,29 +527,6 @@
     <t>https://isa.epfl.ch/imoniteur_ISAP/!farforms.htm?x=master</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>from mid-November to December 15th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> or from December 16th to April 15th</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.epfl.ch/education/admission/admission-2/phd-admission-criteria-and-application/applications-faqs/</t>
   </si>
   <si>
@@ -754,6 +731,32 @@
   </si>
   <si>
     <t>已发送</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mid-November 2020 to December 15th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or from December 16th to April 15th</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1861,9 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1907,7 +1910,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>3</v>
@@ -1964,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>20</v>
@@ -1976,16 +1979,16 @@
         <v>42</v>
       </c>
       <c r="Y1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="AC1" s="15" t="s">
         <v>37</v>
@@ -2039,14 +2042,14 @@
         <v>59</v>
       </c>
       <c r="P2" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="45" t="s">
         <v>131</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>132</v>
       </c>
       <c r="R2" s="44"/>
       <c r="S2" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T2" s="45" t="s">
         <v>48</v>
@@ -2091,7 +2094,7 @@
       <c r="AH2" s="44"/>
     </row>
     <row r="3" spans="1:34" ht="156" customHeight="1">
-      <c r="A3" s="30">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
@@ -2125,37 +2128,37 @@
         <v>83</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="P3" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="18"/>
       <c r="U3" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W3" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X3" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>14</v>
@@ -2164,16 +2167,16 @@
         <v>14</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
@@ -2216,52 +2219,52 @@
         <v>66</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="21"/>
       <c r="U4" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W4" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X4" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA4" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
@@ -2271,25 +2274,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="18"/>
@@ -2298,58 +2301,58 @@
         <v>69</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="40" t="s">
-        <v>161</v>
-      </c>
       <c r="P5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="21"/>
       <c r="U5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X5" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="AB5" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG5" s="17"/>
       <c r="AH5" s="17"/>
@@ -2362,7 +2365,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>79</v>
@@ -2392,58 +2395,58 @@
         <v>4836</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="21"/>
       <c r="U6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X6" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA6" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="AC6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG6" s="17"/>
       <c r="AH6" s="17"/>
     </row>
     <row r="7" spans="1:34" ht="80" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="50">
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -2480,34 +2483,34 @@
         <v>91</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
       <c r="U7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X7" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>14</v>
@@ -2516,16 +2519,16 @@
         <v>14</v>
       </c>
       <c r="AC7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG7" s="17"/>
       <c r="AH7" s="17"/>
@@ -2541,7 +2544,7 @@
         <v>98</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>93</v>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
@@ -2585,13 +2588,13 @@
         <v>12</v>
       </c>
       <c r="X8" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>23</v>
@@ -2646,63 +2649,63 @@
         <v>104</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="18"/>
       <c r="U9" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V9" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X9" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA9" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB9" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC9" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG9" s="17"/>
       <c r="AH9" s="17"/>
     </row>
     <row r="10" spans="1:34" ht="80" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>109</v>
@@ -2749,15 +2752,17 @@
       <c r="W10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="51"/>
+      <c r="X10" s="51" t="s">
+        <v>178</v>
+      </c>
       <c r="Y10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="AA10" s="20" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="AB10" s="20" t="s">
         <v>23</v>
@@ -2778,7 +2783,7 @@
       <c r="AH10" s="17"/>
     </row>
     <row r="11" spans="1:34" ht="80" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -2788,7 +2793,7 @@
         <v>118</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>117</v>
@@ -2797,7 +2802,7 @@
         <v>116</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>120</v>
@@ -2809,10 +2814,10 @@
         <v>119</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
@@ -2862,40 +2867,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>125</v>
-      </c>
       <c r="G12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="O12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -2903,40 +2908,40 @@
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
       <c r="U12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X12" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA12" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
